--- a/COMS_ClassWorkFile.xlsx
+++ b/COMS_ClassWorkFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMOS COMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5BA05D-19D0-4EFE-82A6-296184199EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896AD55-E7CD-4540-BC69-AD55C60B03BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{169EFB03-37B4-4B2B-9A8A-5BDCEEAEFB99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{169EFB03-37B4-4B2B-9A8A-5BDCEEAEFB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation and Regression-1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Student</t>
   </si>
@@ -94,13 +94,94 @@
   </si>
   <si>
     <t>y'</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +197,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -465,11 +572,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -519,6 +725,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +909,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -948,7 +1224,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1010,7 +1286,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1052,7 +1328,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1096,7 +1372,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1719,15 +1995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>93784</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>88118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>462280</xdr:colOff>
+      <xdr:colOff>479864</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>161778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C084A1-DD4E-4B82-AD5F-30172268964A}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,12 +2807,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62E11E3-6F87-4E00-BE67-3AEE3E589C04}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>22</v>
+      </c>
+      <c r="E3" s="49">
+        <v>550</v>
+      </c>
+      <c r="F3" s="52">
+        <f>($J$18+$J$19*C3+$J$20*D3)</f>
+        <v>555.36373267414149</v>
+      </c>
+      <c r="G3" s="52">
+        <f>(E3-F3)^2</f>
+        <v>28.769628199652999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="34">
+        <v>27</v>
+      </c>
+      <c r="E4" s="50">
+        <v>570</v>
+      </c>
+      <c r="F4" s="53">
+        <f t="shared" ref="F4:F7" si="0">($J$18+$J$19*C4+$J$20*D4)</f>
+        <v>584.20852829522391</v>
+      </c>
+      <c r="G4" s="53">
+        <f t="shared" ref="G4:G7" si="1">(E4-F4)^2</f>
+        <v>201.88227631617858</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="34">
+        <v>24</v>
+      </c>
+      <c r="E5" s="50">
+        <v>525</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="0"/>
+        <v>523.08157499779293</v>
+      </c>
+      <c r="G5" s="53">
+        <f t="shared" si="1"/>
+        <v>3.6803544890932072</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.98928820282730667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="D6" s="34">
+        <v>28</v>
+      </c>
+      <c r="E6" s="50">
+        <v>670</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" si="0"/>
+        <v>660.08960889909076</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" si="1"/>
+        <v>98.215851772980997</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.97869114825328229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="36">
+        <v>23</v>
+      </c>
+      <c r="E7" s="51">
+        <v>490</v>
+      </c>
+      <c r="F7" s="54">
+        <f t="shared" si="0"/>
+        <v>482.25655513375125</v>
+      </c>
+      <c r="G7" s="54">
+        <f t="shared" si="1"/>
+        <v>59.960938396634141</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0.95738229650656459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="55">
+        <f>SUM(G3:G7)</f>
+        <v>392.50904917453994</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="38">
+        <v>14.009087214635695</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="46"/>
+      <c r="I9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="45">
+        <v>3</v>
+      </c>
+      <c r="D12" s="31">
+        <v>25</v>
+      </c>
+      <c r="E12" s="32">
+        <f>$J$18+$J$19*C12+$J$20*D12</f>
+        <v>581.43462523174719</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="20">
+        <v>2.9</v>
+      </c>
+      <c r="D13" s="36">
+        <v>24</v>
+      </c>
+      <c r="E13" s="37">
+        <f>$J$18+$J$19*C13+$J$20*D13</f>
+        <v>558.13763573761821</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="I13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="38">
+        <v>2</v>
+      </c>
+      <c r="K13" s="38">
+        <v>18027.49095082546</v>
+      </c>
+      <c r="L13" s="38">
+        <v>9013.7454754127302</v>
+      </c>
+      <c r="M13" s="38">
+        <v>45.928854350588743</v>
+      </c>
+      <c r="N13" s="38">
+        <v>2.1308851746717622E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="38">
+        <v>2</v>
+      </c>
+      <c r="K14" s="56">
+        <v>392.50904917453863</v>
+      </c>
+      <c r="L14" s="38">
+        <v>196.25452458726932</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="39">
+        <v>4</v>
+      </c>
+      <c r="K15" s="39">
+        <v>18420</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I17" s="40"/>
+      <c r="J17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="42">
+        <v>-44.81018804626126</v>
+      </c>
+      <c r="K18" s="38">
+        <v>69.246866630890381</v>
+      </c>
+      <c r="L18" s="38">
+        <v>-0.64710780756499753</v>
+      </c>
+      <c r="M18" s="38">
+        <v>0.58391574508017841</v>
+      </c>
+      <c r="N18" s="38">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="O18" s="38">
+        <v>253.13503168973631</v>
+      </c>
+      <c r="P18" s="38">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>253.13503168973631</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.3">
+      <c r="I19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="43">
+        <v>87.640151849563026</v>
+      </c>
+      <c r="K19" s="38">
+        <v>15.237186664924886</v>
+      </c>
+      <c r="L19" s="38">
+        <v>5.7517279125618073</v>
+      </c>
+      <c r="M19" s="38">
+        <v>2.8922600815111749E-2</v>
+      </c>
+      <c r="N19" s="38">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="O19" s="38">
+        <v>153.20047464710422</v>
+      </c>
+      <c r="P19" s="38">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>153.20047464710422</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="44">
+        <v>14.532974309172776</v>
+      </c>
+      <c r="K20" s="39">
+        <v>2.9137375361504319</v>
+      </c>
+      <c r="L20" s="39">
+        <v>4.9877431061870565</v>
+      </c>
+      <c r="M20" s="39">
+        <v>3.7924876930238542E-2</v>
+      </c>
+      <c r="N20" s="39">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="O20" s="39">
+        <v>27.069775072863909</v>
+      </c>
+      <c r="P20" s="39">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>27.069775072863909</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>